--- a/Code/Results/Cases/Case_5_142/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_142/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9678450266488479</v>
+        <v>1.025109979222057</v>
       </c>
       <c r="D2">
-        <v>0.9929685465461846</v>
+        <v>1.028327507728955</v>
       </c>
       <c r="E2">
-        <v>0.9779054025060631</v>
+        <v>1.025421719044825</v>
       </c>
       <c r="F2">
-        <v>0.9429088653235963</v>
+        <v>1.023603807099087</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032951007506882</v>
+        <v>1.029356175659613</v>
       </c>
       <c r="J2">
-        <v>0.9910319471723079</v>
+        <v>1.030280834624214</v>
       </c>
       <c r="K2">
-        <v>1.004526717743275</v>
+        <v>1.031144646376276</v>
       </c>
       <c r="L2">
-        <v>0.9896813805544433</v>
+        <v>1.028247338075449</v>
       </c>
       <c r="M2">
-        <v>0.9552253529451301</v>
+        <v>1.026434758240348</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.977288732430916</v>
+        <v>1.026816996821466</v>
       </c>
       <c r="D3">
-        <v>0.9999107897917652</v>
+        <v>1.029572503769889</v>
       </c>
       <c r="E3">
-        <v>0.9858349815062687</v>
+        <v>1.026897240026056</v>
       </c>
       <c r="F3">
-        <v>0.9554698777360494</v>
+        <v>1.025958908886571</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035964751333311</v>
+        <v>1.029763678090753</v>
       </c>
       <c r="J3">
-        <v>0.9984182776865492</v>
+        <v>1.031623137731457</v>
       </c>
       <c r="K3">
-        <v>1.010544812206396</v>
+        <v>1.032196375637372</v>
       </c>
       <c r="L3">
-        <v>0.9966523732693353</v>
+        <v>1.029528345412348</v>
       </c>
       <c r="M3">
-        <v>0.9667061244907996</v>
+        <v>1.02859256105393</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.983148149830213</v>
+        <v>1.027917597803258</v>
       </c>
       <c r="D4">
-        <v>1.004220208666699</v>
+        <v>1.030374573288738</v>
       </c>
       <c r="E4">
-        <v>0.9907615800730053</v>
+        <v>1.027848682398705</v>
       </c>
       <c r="F4">
-        <v>0.9632465062196011</v>
+        <v>1.027478105170414</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03781567387819</v>
+        <v>1.030024036439695</v>
       </c>
       <c r="J4">
-        <v>1.002992976755709</v>
+        <v>1.0324875167029</v>
       </c>
       <c r="K4">
-        <v>1.014267964947789</v>
+        <v>1.032872847853746</v>
       </c>
       <c r="L4">
-        <v>1.000972798523194</v>
+        <v>1.030353437239987</v>
       </c>
       <c r="M4">
-        <v>0.9738097320821906</v>
+        <v>1.029983813633798</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9855559476988125</v>
+        <v>1.028379362758668</v>
       </c>
       <c r="D5">
-        <v>1.005991358368809</v>
+        <v>1.030710931655675</v>
       </c>
       <c r="E5">
-        <v>0.9927875019005024</v>
+        <v>1.028247889577853</v>
       </c>
       <c r="F5">
-        <v>0.9664389235440684</v>
+        <v>1.028115678875713</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038571620917089</v>
+        <v>1.030132700974056</v>
       </c>
       <c r="J5">
-        <v>1.004870836510442</v>
+        <v>1.032849916000458</v>
       </c>
       <c r="K5">
-        <v>1.015795207090169</v>
+        <v>1.033156274971455</v>
       </c>
       <c r="L5">
-        <v>1.002746954488023</v>
+        <v>1.030699409022867</v>
       </c>
       <c r="M5">
-        <v>0.9767247575064653</v>
+        <v>1.030567530743169</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9859570975113416</v>
+        <v>1.028456841267622</v>
       </c>
       <c r="D6">
-        <v>1.006286451248255</v>
+        <v>1.030767359297107</v>
       </c>
       <c r="E6">
-        <v>0.9931251105424771</v>
+        <v>1.028314872966502</v>
       </c>
       <c r="F6">
-        <v>0.9669706276786226</v>
+        <v>1.02822266692482</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03869728882348</v>
+        <v>1.030150900050432</v>
       </c>
       <c r="J6">
-        <v>1.005183576678215</v>
+        <v>1.032910707080482</v>
       </c>
       <c r="K6">
-        <v>1.016049490191488</v>
+        <v>1.033203807571908</v>
       </c>
       <c r="L6">
-        <v>1.003042462308644</v>
+        <v>1.030757447027979</v>
       </c>
       <c r="M6">
-        <v>0.9772101938444634</v>
+        <v>1.030665471911107</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9831805353046555</v>
+        <v>1.027923771548911</v>
       </c>
       <c r="D7">
-        <v>1.004244030173308</v>
+        <v>1.030379070976491</v>
       </c>
       <c r="E7">
-        <v>0.9907888236696833</v>
+        <v>1.027854019665564</v>
       </c>
       <c r="F7">
-        <v>0.9632894567400141</v>
+        <v>1.027486628726976</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037825860116569</v>
+        <v>1.030025491517732</v>
       </c>
       <c r="J7">
-        <v>1.003018242468464</v>
+        <v>1.032492362952099</v>
       </c>
       <c r="K7">
-        <v>1.014288517601558</v>
+        <v>1.032876638783877</v>
       </c>
       <c r="L7">
-        <v>1.000996666328385</v>
+        <v>1.030358063636423</v>
       </c>
       <c r="M7">
-        <v>0.9738489550999188</v>
+        <v>1.029991617830588</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.971091604811579</v>
+        <v>1.025687703796404</v>
       </c>
       <c r="D8">
-        <v>0.9953545969385521</v>
+        <v>1.028748997667068</v>
       </c>
       <c r="E8">
-        <v>0.9806299436463031</v>
+        <v>1.025921074579339</v>
       </c>
       <c r="F8">
-        <v>0.9472312935384085</v>
+        <v>1.024400719605939</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033991055843412</v>
+        <v>1.029494584338202</v>
       </c>
       <c r="J8">
-        <v>0.9935729549512864</v>
+        <v>1.030735347187083</v>
       </c>
       <c r="K8">
-        <v>1.006597863035557</v>
+        <v>1.031500932459475</v>
       </c>
       <c r="L8">
-        <v>0.9920788485872546</v>
+        <v>1.028681057095857</v>
       </c>
       <c r="M8">
-        <v>0.9591768955066876</v>
+        <v>1.027165048704868</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9476170439270682</v>
+        <v>1.021716337316919</v>
       </c>
       <c r="D9">
-        <v>0.9781212465805227</v>
+        <v>1.025849027034356</v>
       </c>
       <c r="E9">
-        <v>0.9609667123979388</v>
+        <v>1.022488874597086</v>
       </c>
       <c r="F9">
-        <v>0.9158574207115361</v>
+        <v>1.018925432794981</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026391211480819</v>
+        <v>1.028533362337054</v>
       </c>
       <c r="J9">
-        <v>0.9751655657426942</v>
+        <v>1.027606548005155</v>
       </c>
       <c r="K9">
-        <v>0.9915795538190328</v>
+        <v>1.029045078098312</v>
       </c>
       <c r="L9">
-        <v>0.9747265011606189</v>
+        <v>1.025696166649526</v>
       </c>
       <c r="M9">
-        <v>0.9304810601789341</v>
+        <v>1.02214473490405</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9300802546595636</v>
+        <v>1.019046632427948</v>
       </c>
       <c r="D10">
-        <v>0.9652856028059907</v>
+        <v>1.023896373917577</v>
       </c>
       <c r="E10">
-        <v>0.9463350874203736</v>
+        <v>1.020182219179631</v>
       </c>
       <c r="F10">
-        <v>0.8921937026246427</v>
+        <v>1.015247998947158</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020615789167835</v>
+        <v>1.027874923260944</v>
       </c>
       <c r="J10">
-        <v>0.9613715468536382</v>
+        <v>1.025497711254171</v>
       </c>
       <c r="K10">
-        <v>0.9803112589889172</v>
+        <v>1.027385782129007</v>
       </c>
       <c r="L10">
-        <v>0.9617459402346368</v>
+        <v>1.023685301407006</v>
       </c>
       <c r="M10">
-        <v>0.9088265427235156</v>
+        <v>1.01876941823197</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9219113118191237</v>
+        <v>1.0178851033332</v>
       </c>
       <c r="D11">
-        <v>0.9593211145820171</v>
+        <v>1.023046086031799</v>
       </c>
       <c r="E11">
-        <v>0.9395372182334111</v>
+        <v>1.019178800278517</v>
       </c>
       <c r="F11">
-        <v>0.8810872759079232</v>
+        <v>1.013648715430646</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.017904288304681</v>
+        <v>1.027585552823296</v>
       </c>
       <c r="J11">
-        <v>0.9549365705509743</v>
+        <v>1.024578893659922</v>
       </c>
       <c r="K11">
-        <v>0.9750532304470415</v>
+        <v>1.026661885708661</v>
       </c>
       <c r="L11">
-        <v>0.9556971491766156</v>
+        <v>1.022809403873174</v>
       </c>
       <c r="M11">
-        <v>0.8986638158523931</v>
+        <v>1.017300705986151</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9187762565241885</v>
+        <v>1.017452805628249</v>
       </c>
       <c r="D12">
-        <v>0.9570348325356639</v>
+        <v>1.022729517949614</v>
       </c>
       <c r="E12">
-        <v>0.9369314443432932</v>
+        <v>1.018805372446812</v>
       </c>
       <c r="F12">
-        <v>0.8768088960918192</v>
+        <v>1.013053589902746</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016860707013383</v>
+        <v>1.027477420534274</v>
       </c>
       <c r="J12">
-        <v>0.9524656035899929</v>
+        <v>1.024236731824292</v>
       </c>
       <c r="K12">
-        <v>0.9730342179525654</v>
+        <v>1.026392170625026</v>
       </c>
       <c r="L12">
-        <v>0.9533756210220926</v>
+        <v>1.022483260572662</v>
       </c>
       <c r="M12">
-        <v>0.8947494483921054</v>
+        <v>1.016754046313995</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9194535655381827</v>
+        <v>1.017545573981414</v>
       </c>
       <c r="D13">
-        <v>0.9575286352617841</v>
+        <v>1.02279745631656</v>
       </c>
       <c r="E13">
-        <v>0.9374942584944769</v>
+        <v>1.018885506573952</v>
       </c>
       <c r="F13">
-        <v>0.8777339989616905</v>
+        <v>1.013181295876004</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017086295992552</v>
+        <v>1.027500644677788</v>
       </c>
       <c r="J13">
-        <v>0.9529995013033249</v>
+        <v>1.024310166472512</v>
       </c>
       <c r="K13">
-        <v>0.9734704578406185</v>
+        <v>1.026450063123629</v>
       </c>
       <c r="L13">
-        <v>0.9538771754506743</v>
+        <v>1.022553255724774</v>
       </c>
       <c r="M13">
-        <v>0.8955958127994467</v>
+        <v>1.016871357691545</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9216543182163096</v>
+        <v>1.017849387029558</v>
       </c>
       <c r="D14">
-        <v>0.9591336393028947</v>
+        <v>1.023019933466438</v>
       </c>
       <c r="E14">
-        <v>0.9393235469007992</v>
+        <v>1.019147947280976</v>
       </c>
       <c r="F14">
-        <v>0.8807369050671443</v>
+        <v>1.013599544438194</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.017818800114134</v>
+        <v>1.027576627818142</v>
       </c>
       <c r="J14">
-        <v>0.9547340423758506</v>
+        <v>1.024550628357462</v>
       </c>
       <c r="K14">
-        <v>0.9748877441055427</v>
+        <v>1.026639607947942</v>
       </c>
       <c r="L14">
-        <v>0.9555068453919978</v>
+        <v>1.022782461107331</v>
       </c>
       <c r="M14">
-        <v>0.8983432428970636</v>
+        <v>1.017255541874831</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9229964349032775</v>
+        <v>1.018036462396112</v>
       </c>
       <c r="D15">
-        <v>0.9601128201596556</v>
+        <v>1.023156911336475</v>
       </c>
       <c r="E15">
-        <v>0.9404395462064917</v>
+        <v>1.01930955056009</v>
       </c>
       <c r="F15">
-        <v>0.8825660038767593</v>
+        <v>1.013857096831287</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018265132851074</v>
+        <v>1.027623357566377</v>
       </c>
       <c r="J15">
-        <v>0.9557916652469283</v>
+        <v>1.024698668726322</v>
       </c>
       <c r="K15">
-        <v>0.975751932857663</v>
+        <v>1.026756282639454</v>
       </c>
       <c r="L15">
-        <v>0.9565006785145137</v>
+        <v>1.022923576099638</v>
       </c>
       <c r="M15">
-        <v>0.9000168049042697</v>
+        <v>1.017492101649632</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9306091363533697</v>
+        <v>1.019123600806407</v>
       </c>
       <c r="D16">
-        <v>0.965672103842812</v>
+        <v>1.023952702758047</v>
       </c>
       <c r="E16">
-        <v>0.946775598522087</v>
+        <v>1.020248713795414</v>
       </c>
       <c r="F16">
-        <v>0.8929107956487858</v>
+        <v>1.015353988778982</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02079092371431</v>
+        <v>1.027894037441805</v>
       </c>
       <c r="J16">
-        <v>0.9617879773895538</v>
+        <v>1.025558568911837</v>
       </c>
       <c r="K16">
-        <v>0.9806515150340042</v>
+        <v>1.027433709496295</v>
       </c>
       <c r="L16">
-        <v>0.9621375271284809</v>
+        <v>1.023743321201805</v>
       </c>
       <c r="M16">
-        <v>0.9094827483720711</v>
+        <v>1.018866737524127</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9352212942620003</v>
+        <v>1.019804037279295</v>
       </c>
       <c r="D17">
-        <v>0.969044293212493</v>
+        <v>1.024450591940156</v>
       </c>
       <c r="E17">
-        <v>0.9506191303867437</v>
+        <v>1.02083657535601</v>
       </c>
       <c r="F17">
-        <v>0.8991546978115305</v>
+        <v>1.016291066600944</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022315866958596</v>
+        <v>1.028062681883372</v>
       </c>
       <c r="J17">
-        <v>0.9654184500927341</v>
+        <v>1.02609642818957</v>
       </c>
       <c r="K17">
-        <v>0.9836177676828631</v>
+        <v>1.027857182538998</v>
       </c>
       <c r="L17">
-        <v>0.9655521677123658</v>
+        <v>1.024256126451415</v>
       </c>
       <c r="M17">
-        <v>0.915196599338681</v>
+        <v>1.019727063227277</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9378570972475105</v>
+        <v>1.020200392464898</v>
       </c>
       <c r="D18">
-        <v>0.9709727713986676</v>
+        <v>1.024740542518065</v>
       </c>
       <c r="E18">
-        <v>0.952817283290305</v>
+        <v>1.021179020410994</v>
       </c>
       <c r="F18">
-        <v>0.9027155843865289</v>
+        <v>1.016836982236367</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023185384766554</v>
+        <v>1.028160638587447</v>
       </c>
       <c r="J18">
-        <v>0.9674923513795499</v>
+        <v>1.026409605928965</v>
       </c>
       <c r="K18">
-        <v>0.9853120976444157</v>
+        <v>1.02810366620078</v>
       </c>
       <c r="L18">
-        <v>0.9675033829626263</v>
+        <v>1.024554738534573</v>
       </c>
       <c r="M18">
-        <v>0.9184552340295331</v>
+        <v>1.020228186565726</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9387469912721313</v>
+        <v>1.020335449823456</v>
       </c>
       <c r="D19">
-        <v>0.971624066651563</v>
+        <v>1.024839330661269</v>
       </c>
       <c r="E19">
-        <v>0.953559681371883</v>
+        <v>1.021295710475441</v>
       </c>
       <c r="F19">
-        <v>0.9039166260476945</v>
+        <v>1.017023013571992</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023478609111669</v>
+        <v>1.02819396982979</v>
       </c>
       <c r="J19">
-        <v>0.9681923867078903</v>
+        <v>1.026516299326577</v>
       </c>
       <c r="K19">
-        <v>0.9858839817466442</v>
+        <v>1.028187622835848</v>
       </c>
       <c r="L19">
-        <v>0.9681621057482952</v>
+        <v>1.024656473510397</v>
       </c>
       <c r="M19">
-        <v>0.9195543266364057</v>
+        <v>1.020398940708821</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9347321714242743</v>
+        <v>1.019731088070227</v>
       </c>
       <c r="D20">
-        <v>0.9686865303393603</v>
+        <v>1.024397220811134</v>
       </c>
       <c r="E20">
-        <v>0.950211350184711</v>
+        <v>1.020773549502739</v>
       </c>
       <c r="F20">
-        <v>0.8984933241115332</v>
+        <v>1.016190596189034</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02215434976716</v>
+        <v>1.028044630465902</v>
       </c>
       <c r="J20">
-        <v>0.9650335268608283</v>
+        <v>1.026038777641628</v>
       </c>
       <c r="K20">
-        <v>0.9833032817119802</v>
+        <v>1.027811801885784</v>
       </c>
       <c r="L20">
-        <v>0.9651900639902343</v>
+        <v>1.024201158995921</v>
       </c>
       <c r="M20">
-        <v>0.9145913643262582</v>
+        <v>1.0196348300606</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9210091657766699</v>
+        <v>1.017759945425523</v>
       </c>
       <c r="D21">
-        <v>0.9586630507115788</v>
+        <v>1.022954439861219</v>
       </c>
       <c r="E21">
-        <v>0.9387872011059756</v>
+        <v>1.019070684880479</v>
       </c>
       <c r="F21">
-        <v>0.879857070428074</v>
+        <v>1.013476410804059</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017604145235952</v>
+        <v>1.027554270599782</v>
       </c>
       <c r="J21">
-        <v>0.9542255972838027</v>
+        <v>1.024479842554068</v>
       </c>
       <c r="K21">
-        <v>0.9744722932968822</v>
+        <v>1.026583814691333</v>
       </c>
       <c r="L21">
-        <v>0.9550291084372625</v>
+        <v>1.0227149879514</v>
       </c>
       <c r="M21">
-        <v>0.8975382445147221</v>
+        <v>1.017142440268609</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.911788020313217</v>
+        <v>1.016515656519328</v>
       </c>
       <c r="D22">
-        <v>0.9519444099987857</v>
+        <v>1.022043055576406</v>
       </c>
       <c r="E22">
-        <v>0.931129303118995</v>
+        <v>1.01799588932371</v>
       </c>
       <c r="F22">
-        <v>0.8672376055563581</v>
+        <v>1.011763623867019</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014529262383075</v>
+        <v>1.027242213739954</v>
       </c>
       <c r="J22">
-        <v>0.9469551745756126</v>
+        <v>1.023494622974745</v>
       </c>
       <c r="K22">
-        <v>0.9685319984624498</v>
+        <v>1.02580693391507</v>
       </c>
       <c r="L22">
-        <v>0.9482007731774493</v>
+        <v>1.021775959062057</v>
       </c>
       <c r="M22">
-        <v>0.8859939324948414</v>
+        <v>1.015568909117158</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9167383418850659</v>
+        <v>1.017175755021655</v>
       </c>
       <c r="D23">
-        <v>0.9555495125652302</v>
+        <v>1.022526605859108</v>
       </c>
       <c r="E23">
-        <v>0.9352385174602367</v>
+        <v>1.018566057337284</v>
       </c>
       <c r="F23">
-        <v>0.87402273909071</v>
+        <v>1.012672212286494</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016181529360733</v>
+        <v>1.02740799860509</v>
       </c>
       <c r="J23">
-        <v>0.9508589937477173</v>
+        <v>1.024017392148712</v>
       </c>
       <c r="K23">
-        <v>0.9717215029974575</v>
+        <v>1.026219232796392</v>
       </c>
       <c r="L23">
-        <v>0.95186652008949</v>
+        <v>1.022274199419794</v>
       </c>
       <c r="M23">
-        <v>0.8922005369395698</v>
+        <v>1.016403692948373</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9349533520214848</v>
+        <v>1.019764052320646</v>
       </c>
       <c r="D24">
-        <v>0.9688483061346208</v>
+        <v>1.024421338347303</v>
       </c>
       <c r="E24">
-        <v>0.9503957427720708</v>
+        <v>1.020802029546396</v>
       </c>
       <c r="F24">
-        <v>0.8987924192399668</v>
+        <v>1.016235996499964</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022227393756121</v>
+        <v>1.028052788393474</v>
       </c>
       <c r="J24">
-        <v>0.9652075912975278</v>
+        <v>1.026064829130785</v>
       </c>
       <c r="K24">
-        <v>0.9834454944671768</v>
+        <v>1.027832309059089</v>
       </c>
       <c r="L24">
-        <v>0.9653538074326015</v>
+        <v>1.024225997963028</v>
       </c>
       <c r="M24">
-        <v>0.9148650715936263</v>
+        <v>1.019676508389528</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9539821272476373</v>
+        <v>1.022746841975043</v>
       </c>
       <c r="D25">
-        <v>0.9827890835239635</v>
+        <v>1.026602088188735</v>
       </c>
       <c r="E25">
-        <v>0.9662898161179974</v>
+        <v>1.023379373133355</v>
       </c>
       <c r="F25">
-        <v>0.9243943414281152</v>
+        <v>1.020345577786254</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028468797455803</v>
+        <v>1.028784941805884</v>
       </c>
       <c r="J25">
-        <v>0.9801640195962406</v>
+        <v>1.02841939385682</v>
       </c>
       <c r="K25">
-        <v>0.9956605848071095</v>
+        <v>1.029683807264326</v>
       </c>
       <c r="L25">
-        <v>0.9794349973833546</v>
+        <v>1.026471455458504</v>
       </c>
       <c r="M25">
-        <v>0.9382918788984947</v>
+        <v>1.023447481378648</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_142/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_142/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025109979222057</v>
+        <v>0.9678450266488489</v>
       </c>
       <c r="D2">
-        <v>1.028327507728955</v>
+        <v>0.9929685465461856</v>
       </c>
       <c r="E2">
-        <v>1.025421719044825</v>
+        <v>0.9779054025060641</v>
       </c>
       <c r="F2">
-        <v>1.023603807099087</v>
+        <v>0.9429088653235977</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029356175659613</v>
+        <v>1.032951007506883</v>
       </c>
       <c r="J2">
-        <v>1.030280834624214</v>
+        <v>0.9910319471723089</v>
       </c>
       <c r="K2">
-        <v>1.031144646376276</v>
+        <v>1.004526717743276</v>
       </c>
       <c r="L2">
-        <v>1.028247338075449</v>
+        <v>0.9896813805544442</v>
       </c>
       <c r="M2">
-        <v>1.026434758240348</v>
+        <v>0.9552253529451314</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026816996821466</v>
+        <v>0.9772887324309163</v>
       </c>
       <c r="D3">
-        <v>1.029572503769889</v>
+        <v>0.9999107897917661</v>
       </c>
       <c r="E3">
-        <v>1.026897240026056</v>
+        <v>0.9858349815062687</v>
       </c>
       <c r="F3">
-        <v>1.025958908886571</v>
+        <v>0.9554698777360496</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029763678090753</v>
+        <v>1.035964751333311</v>
       </c>
       <c r="J3">
-        <v>1.031623137731457</v>
+        <v>0.9984182776865496</v>
       </c>
       <c r="K3">
-        <v>1.032196375637372</v>
+        <v>1.010544812206396</v>
       </c>
       <c r="L3">
-        <v>1.029528345412348</v>
+        <v>0.9966523732693354</v>
       </c>
       <c r="M3">
-        <v>1.02859256105393</v>
+        <v>0.9667061244908</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027917597803258</v>
+        <v>0.9831481498302128</v>
       </c>
       <c r="D4">
-        <v>1.030374573288738</v>
+        <v>1.004220208666699</v>
       </c>
       <c r="E4">
-        <v>1.027848682398705</v>
+        <v>0.9907615800730045</v>
       </c>
       <c r="F4">
-        <v>1.027478105170414</v>
+        <v>0.9632465062196007</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030024036439695</v>
+        <v>1.03781567387819</v>
       </c>
       <c r="J4">
-        <v>1.0324875167029</v>
+        <v>1.002992976755709</v>
       </c>
       <c r="K4">
-        <v>1.032872847853746</v>
+        <v>1.014267964947788</v>
       </c>
       <c r="L4">
-        <v>1.030353437239987</v>
+        <v>1.000972798523194</v>
       </c>
       <c r="M4">
-        <v>1.029983813633798</v>
+        <v>0.9738097320821903</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028379362758668</v>
+        <v>0.9855559476988122</v>
       </c>
       <c r="D5">
-        <v>1.030710931655675</v>
+        <v>1.005991358368808</v>
       </c>
       <c r="E5">
-        <v>1.028247889577853</v>
+        <v>0.9927875019005018</v>
       </c>
       <c r="F5">
-        <v>1.028115678875713</v>
+        <v>0.9664389235440681</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030132700974056</v>
+        <v>1.038571620917089</v>
       </c>
       <c r="J5">
-        <v>1.032849916000458</v>
+        <v>1.004870836510442</v>
       </c>
       <c r="K5">
-        <v>1.033156274971455</v>
+        <v>1.015795207090169</v>
       </c>
       <c r="L5">
-        <v>1.030699409022867</v>
+        <v>1.002746954488022</v>
       </c>
       <c r="M5">
-        <v>1.030567530743169</v>
+        <v>0.976724757506465</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028456841267622</v>
+        <v>0.9859570975113385</v>
       </c>
       <c r="D6">
-        <v>1.030767359297107</v>
+        <v>1.006286451248252</v>
       </c>
       <c r="E6">
-        <v>1.028314872966502</v>
+        <v>0.9931251105424742</v>
       </c>
       <c r="F6">
-        <v>1.02822266692482</v>
+        <v>0.9669706276786196</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030150900050432</v>
+        <v>1.038697288823479</v>
       </c>
       <c r="J6">
-        <v>1.032910707080482</v>
+        <v>1.005183576678212</v>
       </c>
       <c r="K6">
-        <v>1.033203807571908</v>
+        <v>1.016049490191485</v>
       </c>
       <c r="L6">
-        <v>1.030757447027979</v>
+        <v>1.003042462308641</v>
       </c>
       <c r="M6">
-        <v>1.030665471911107</v>
+        <v>0.9772101938444606</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027923771548911</v>
+        <v>0.9831805353046557</v>
       </c>
       <c r="D7">
-        <v>1.030379070976491</v>
+        <v>1.004244030173308</v>
       </c>
       <c r="E7">
-        <v>1.027854019665564</v>
+        <v>0.9907888236696836</v>
       </c>
       <c r="F7">
-        <v>1.027486628726976</v>
+        <v>0.963289456740014</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030025491517732</v>
+        <v>1.037825860116569</v>
       </c>
       <c r="J7">
-        <v>1.032492362952099</v>
+        <v>1.003018242468464</v>
       </c>
       <c r="K7">
-        <v>1.032876638783877</v>
+        <v>1.014288517601558</v>
       </c>
       <c r="L7">
-        <v>1.030358063636423</v>
+        <v>1.000996666328385</v>
       </c>
       <c r="M7">
-        <v>1.029991617830588</v>
+        <v>0.9738489550999186</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025687703796404</v>
+        <v>0.9710916048115764</v>
       </c>
       <c r="D8">
-        <v>1.028748997667068</v>
+        <v>0.9953545969385498</v>
       </c>
       <c r="E8">
-        <v>1.025921074579339</v>
+        <v>0.9806299436463003</v>
       </c>
       <c r="F8">
-        <v>1.024400719605939</v>
+        <v>0.9472312935384053</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029494584338202</v>
+        <v>1.033991055843411</v>
       </c>
       <c r="J8">
-        <v>1.030735347187083</v>
+        <v>0.9935729549512837</v>
       </c>
       <c r="K8">
-        <v>1.031500932459475</v>
+        <v>1.006597863035555</v>
       </c>
       <c r="L8">
-        <v>1.028681057095857</v>
+        <v>0.9920788485872521</v>
       </c>
       <c r="M8">
-        <v>1.027165048704868</v>
+        <v>0.9591768955066845</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021716337316919</v>
+        <v>0.9476170439270677</v>
       </c>
       <c r="D9">
-        <v>1.025849027034356</v>
+        <v>0.9781212465805219</v>
       </c>
       <c r="E9">
-        <v>1.022488874597086</v>
+        <v>0.9609667123979385</v>
       </c>
       <c r="F9">
-        <v>1.018925432794981</v>
+        <v>0.9158574207115359</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028533362337054</v>
+        <v>1.026391211480818</v>
       </c>
       <c r="J9">
-        <v>1.027606548005155</v>
+        <v>0.9751655657426934</v>
       </c>
       <c r="K9">
-        <v>1.029045078098312</v>
+        <v>0.9915795538190322</v>
       </c>
       <c r="L9">
-        <v>1.025696166649526</v>
+        <v>0.9747265011606184</v>
       </c>
       <c r="M9">
-        <v>1.02214473490405</v>
+        <v>0.9304810601789337</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019046632427948</v>
+        <v>0.9300802546595598</v>
       </c>
       <c r="D10">
-        <v>1.023896373917577</v>
+        <v>0.9652856028059876</v>
       </c>
       <c r="E10">
-        <v>1.020182219179631</v>
+        <v>0.9463350874203701</v>
       </c>
       <c r="F10">
-        <v>1.015247998947158</v>
+        <v>0.8921937026246386</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027874923260944</v>
+        <v>1.020615789167833</v>
       </c>
       <c r="J10">
-        <v>1.025497711254171</v>
+        <v>0.9613715468536347</v>
       </c>
       <c r="K10">
-        <v>1.027385782129007</v>
+        <v>0.9803112589889141</v>
       </c>
       <c r="L10">
-        <v>1.023685301407006</v>
+        <v>0.9617459402346333</v>
       </c>
       <c r="M10">
-        <v>1.01876941823197</v>
+        <v>0.9088265427235114</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.0178851033332</v>
+        <v>0.9219113118191264</v>
       </c>
       <c r="D11">
-        <v>1.023046086031799</v>
+        <v>0.9593211145820196</v>
       </c>
       <c r="E11">
-        <v>1.019178800278517</v>
+        <v>0.9395372182334134</v>
       </c>
       <c r="F11">
-        <v>1.013648715430646</v>
+        <v>0.881087275907926</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027585552823296</v>
+        <v>1.017904288304682</v>
       </c>
       <c r="J11">
-        <v>1.024578893659922</v>
+        <v>0.954936570550977</v>
       </c>
       <c r="K11">
-        <v>1.026661885708661</v>
+        <v>0.9750532304470438</v>
       </c>
       <c r="L11">
-        <v>1.022809403873174</v>
+        <v>0.9556971491766179</v>
       </c>
       <c r="M11">
-        <v>1.017300705986151</v>
+        <v>0.8986638158523959</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017452805628249</v>
+        <v>0.9187762565241844</v>
       </c>
       <c r="D12">
-        <v>1.022729517949614</v>
+        <v>0.9570348325356604</v>
       </c>
       <c r="E12">
-        <v>1.018805372446812</v>
+        <v>0.9369314443432895</v>
       </c>
       <c r="F12">
-        <v>1.013053589902746</v>
+        <v>0.8768088960918142</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027477420534274</v>
+        <v>1.016860707013381</v>
       </c>
       <c r="J12">
-        <v>1.024236731824292</v>
+        <v>0.952465603589989</v>
       </c>
       <c r="K12">
-        <v>1.026392170625026</v>
+        <v>0.973034217952562</v>
       </c>
       <c r="L12">
-        <v>1.022483260572662</v>
+        <v>0.9533756210220888</v>
       </c>
       <c r="M12">
-        <v>1.016754046313995</v>
+        <v>0.8947494483921008</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017545573981414</v>
+        <v>0.9194535655381837</v>
       </c>
       <c r="D13">
-        <v>1.02279745631656</v>
+        <v>0.9575286352617851</v>
       </c>
       <c r="E13">
-        <v>1.018885506573952</v>
+        <v>0.9374942584944779</v>
       </c>
       <c r="F13">
-        <v>1.013181295876004</v>
+        <v>0.8777339989616911</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027500644677788</v>
+        <v>1.017086295992553</v>
       </c>
       <c r="J13">
-        <v>1.024310166472512</v>
+        <v>0.9529995013033259</v>
       </c>
       <c r="K13">
-        <v>1.026450063123629</v>
+        <v>0.9734704578406196</v>
       </c>
       <c r="L13">
-        <v>1.022553255724774</v>
+        <v>0.9538771754506754</v>
       </c>
       <c r="M13">
-        <v>1.016871357691545</v>
+        <v>0.8955958127994474</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017849387029558</v>
+        <v>0.9216543182163116</v>
       </c>
       <c r="D14">
-        <v>1.023019933466438</v>
+        <v>0.9591336393028964</v>
       </c>
       <c r="E14">
-        <v>1.019147947280976</v>
+        <v>0.9393235469008008</v>
       </c>
       <c r="F14">
-        <v>1.013599544438194</v>
+        <v>0.8807369050671466</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027576627818142</v>
+        <v>1.017818800114135</v>
       </c>
       <c r="J14">
-        <v>1.024550628357462</v>
+        <v>0.9547340423758525</v>
       </c>
       <c r="K14">
-        <v>1.026639607947942</v>
+        <v>0.9748877441055442</v>
       </c>
       <c r="L14">
-        <v>1.022782461107331</v>
+        <v>0.9555068453919993</v>
       </c>
       <c r="M14">
-        <v>1.017255541874831</v>
+        <v>0.8983432428970658</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018036462396112</v>
+        <v>0.9229964349032762</v>
       </c>
       <c r="D15">
-        <v>1.023156911336475</v>
+        <v>0.9601128201596548</v>
       </c>
       <c r="E15">
-        <v>1.01930955056009</v>
+        <v>0.94043954620649</v>
       </c>
       <c r="F15">
-        <v>1.013857096831287</v>
+        <v>0.882566003876757</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027623357566377</v>
+        <v>1.018265132851074</v>
       </c>
       <c r="J15">
-        <v>1.024698668726322</v>
+        <v>0.9557916652469268</v>
       </c>
       <c r="K15">
-        <v>1.026756282639454</v>
+        <v>0.975751932857662</v>
       </c>
       <c r="L15">
-        <v>1.022923576099638</v>
+        <v>0.9565006785145121</v>
       </c>
       <c r="M15">
-        <v>1.017492101649632</v>
+        <v>0.9000168049042675</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.019123600806407</v>
+        <v>0.9306091363533688</v>
       </c>
       <c r="D16">
-        <v>1.023952702758047</v>
+        <v>0.9656721038428108</v>
       </c>
       <c r="E16">
-        <v>1.020248713795414</v>
+        <v>0.9467755985220866</v>
       </c>
       <c r="F16">
-        <v>1.015353988778982</v>
+        <v>0.8929107956487855</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027894037441805</v>
+        <v>1.020790923714309</v>
       </c>
       <c r="J16">
-        <v>1.025558568911837</v>
+        <v>0.961787977389553</v>
       </c>
       <c r="K16">
-        <v>1.027433709496295</v>
+        <v>0.9806515150340031</v>
       </c>
       <c r="L16">
-        <v>1.023743321201805</v>
+        <v>0.9621375271284803</v>
       </c>
       <c r="M16">
-        <v>1.018866737524127</v>
+        <v>0.9094827483720704</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.019804037279295</v>
+        <v>0.9352212942620011</v>
       </c>
       <c r="D17">
-        <v>1.024450591940156</v>
+        <v>0.9690442932124935</v>
       </c>
       <c r="E17">
-        <v>1.02083657535601</v>
+        <v>0.9506191303867442</v>
       </c>
       <c r="F17">
-        <v>1.016291066600944</v>
+        <v>0.8991546978115316</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028062681883372</v>
+        <v>1.022315866958596</v>
       </c>
       <c r="J17">
-        <v>1.02609642818957</v>
+        <v>0.9654184500927347</v>
       </c>
       <c r="K17">
-        <v>1.027857182538998</v>
+        <v>0.9836177676828636</v>
       </c>
       <c r="L17">
-        <v>1.024256126451415</v>
+        <v>0.9655521677123664</v>
       </c>
       <c r="M17">
-        <v>1.019727063227277</v>
+        <v>0.9151965993386821</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020200392464898</v>
+        <v>0.9378570972475114</v>
       </c>
       <c r="D18">
-        <v>1.024740542518065</v>
+        <v>0.9709727713986682</v>
       </c>
       <c r="E18">
-        <v>1.021179020410994</v>
+        <v>0.9528172832903057</v>
       </c>
       <c r="F18">
-        <v>1.016836982236367</v>
+        <v>0.90271558438653</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028160638587447</v>
+        <v>1.023185384766554</v>
       </c>
       <c r="J18">
-        <v>1.026409605928965</v>
+        <v>0.9674923513795509</v>
       </c>
       <c r="K18">
-        <v>1.02810366620078</v>
+        <v>0.9853120976444165</v>
       </c>
       <c r="L18">
-        <v>1.024554738534573</v>
+        <v>0.9675033829626272</v>
       </c>
       <c r="M18">
-        <v>1.020228186565726</v>
+        <v>0.9184552340295342</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020335449823456</v>
+        <v>0.9387469912721296</v>
       </c>
       <c r="D19">
-        <v>1.024839330661269</v>
+        <v>0.9716240666515618</v>
       </c>
       <c r="E19">
-        <v>1.021295710475441</v>
+        <v>0.9535596813718814</v>
       </c>
       <c r="F19">
-        <v>1.017023013571992</v>
+        <v>0.9039166260476935</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02819396982979</v>
+        <v>1.023478609111668</v>
       </c>
       <c r="J19">
-        <v>1.026516299326577</v>
+        <v>0.9681923867078888</v>
       </c>
       <c r="K19">
-        <v>1.028187622835848</v>
+        <v>0.9858839817466428</v>
       </c>
       <c r="L19">
-        <v>1.024656473510397</v>
+        <v>0.9681621057482934</v>
       </c>
       <c r="M19">
-        <v>1.020398940708821</v>
+        <v>0.9195543266364046</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019731088070227</v>
+        <v>0.934732171424276</v>
       </c>
       <c r="D20">
-        <v>1.024397220811134</v>
+        <v>0.9686865303393616</v>
       </c>
       <c r="E20">
-        <v>1.020773549502739</v>
+        <v>0.9502113501847125</v>
       </c>
       <c r="F20">
-        <v>1.016190596189034</v>
+        <v>0.8984933241115357</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028044630465902</v>
+        <v>1.022154349767161</v>
       </c>
       <c r="J20">
-        <v>1.026038777641628</v>
+        <v>0.9650335268608299</v>
       </c>
       <c r="K20">
-        <v>1.027811801885784</v>
+        <v>0.9833032817119814</v>
       </c>
       <c r="L20">
-        <v>1.024201158995921</v>
+        <v>0.9651900639902358</v>
       </c>
       <c r="M20">
-        <v>1.0196348300606</v>
+        <v>0.9145913643262605</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017759945425523</v>
+        <v>0.9210091657766712</v>
       </c>
       <c r="D21">
-        <v>1.022954439861219</v>
+        <v>0.9586630507115803</v>
       </c>
       <c r="E21">
-        <v>1.019070684880479</v>
+        <v>0.9387872011059768</v>
       </c>
       <c r="F21">
-        <v>1.013476410804059</v>
+        <v>0.8798570704280763</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027554270599782</v>
+        <v>1.017604145235953</v>
       </c>
       <c r="J21">
-        <v>1.024479842554068</v>
+        <v>0.9542255972838043</v>
       </c>
       <c r="K21">
-        <v>1.026583814691333</v>
+        <v>0.9744722932968836</v>
       </c>
       <c r="L21">
-        <v>1.0227149879514</v>
+        <v>0.9550291084372639</v>
       </c>
       <c r="M21">
-        <v>1.017142440268609</v>
+        <v>0.8975382445147243</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.016515656519328</v>
+        <v>0.9117880203132167</v>
       </c>
       <c r="D22">
-        <v>1.022043055576406</v>
+        <v>0.9519444099987854</v>
       </c>
       <c r="E22">
-        <v>1.01799588932371</v>
+        <v>0.9311293031189946</v>
       </c>
       <c r="F22">
-        <v>1.011763623867019</v>
+        <v>0.867237605556358</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027242213739954</v>
+        <v>1.014529262383075</v>
       </c>
       <c r="J22">
-        <v>1.023494622974745</v>
+        <v>0.9469551745756124</v>
       </c>
       <c r="K22">
-        <v>1.02580693391507</v>
+        <v>0.9685319984624494</v>
       </c>
       <c r="L22">
-        <v>1.021775959062057</v>
+        <v>0.9482007731774491</v>
       </c>
       <c r="M22">
-        <v>1.015568909117158</v>
+        <v>0.8859939324948413</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017175755021655</v>
+        <v>0.9167383418850659</v>
       </c>
       <c r="D23">
-        <v>1.022526605859108</v>
+        <v>0.9555495125652302</v>
       </c>
       <c r="E23">
-        <v>1.018566057337284</v>
+        <v>0.9352385174602366</v>
       </c>
       <c r="F23">
-        <v>1.012672212286494</v>
+        <v>0.8740227390907099</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02740799860509</v>
+        <v>1.016181529360733</v>
       </c>
       <c r="J23">
-        <v>1.024017392148712</v>
+        <v>0.9508589937477172</v>
       </c>
       <c r="K23">
-        <v>1.026219232796392</v>
+        <v>0.9717215029974576</v>
       </c>
       <c r="L23">
-        <v>1.022274199419794</v>
+        <v>0.9518665200894899</v>
       </c>
       <c r="M23">
-        <v>1.016403692948373</v>
+        <v>0.8922005369395697</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019764052320646</v>
+        <v>0.9349533520214881</v>
       </c>
       <c r="D24">
-        <v>1.024421338347303</v>
+        <v>0.9688483061346237</v>
       </c>
       <c r="E24">
-        <v>1.020802029546396</v>
+        <v>0.9503957427720739</v>
       </c>
       <c r="F24">
-        <v>1.016235996499964</v>
+        <v>0.8987924192399706</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028052788393474</v>
+        <v>1.022227393756122</v>
       </c>
       <c r="J24">
-        <v>1.026064829130785</v>
+        <v>0.9652075912975311</v>
       </c>
       <c r="K24">
-        <v>1.027832309059089</v>
+        <v>0.9834454944671795</v>
       </c>
       <c r="L24">
-        <v>1.024225997963028</v>
+        <v>0.9653538074326045</v>
       </c>
       <c r="M24">
-        <v>1.019676508389528</v>
+        <v>0.9148650715936297</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022746841975043</v>
+        <v>0.9539821272476358</v>
       </c>
       <c r="D25">
-        <v>1.026602088188735</v>
+        <v>0.9827890835239619</v>
       </c>
       <c r="E25">
-        <v>1.023379373133355</v>
+        <v>0.9662898161179964</v>
       </c>
       <c r="F25">
-        <v>1.020345577786254</v>
+        <v>0.9243943414281134</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028784941805884</v>
+        <v>1.028468797455802</v>
       </c>
       <c r="J25">
-        <v>1.02841939385682</v>
+        <v>0.9801640195962389</v>
       </c>
       <c r="K25">
-        <v>1.029683807264326</v>
+        <v>0.995660584807108</v>
       </c>
       <c r="L25">
-        <v>1.026471455458504</v>
+        <v>0.9794349973833534</v>
       </c>
       <c r="M25">
-        <v>1.023447481378648</v>
+        <v>0.9382918788984933</v>
       </c>
     </row>
   </sheetData>
